--- a/Tech/Tech Sector - (02-07-2024).xlsx
+++ b/Tech/Tech Sector - (02-07-2024).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzz5\OneDrive\Desktop\FModels\Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6713C62-980F-470A-BA01-1E59E6A311C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A238D5-7951-4F50-85A8-CAF39212BAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BD27366-E538-484F-9309-B2C920D55922}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BD27366-E538-484F-9309-B2C920D55922}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -549,15 +549,47 @@
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software </t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>E-commerce, Cloud</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Automobiles, Data, Energy</t>
+  </si>
+  <si>
+    <t>SAAS</t>
+  </si>
+  <si>
+    <t>02/13/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -623,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -634,8 +666,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,13 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95532D39-C190-4F43-AC8E-3AE4E6AFB714}">
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1000,7 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" style="6" customWidth="1"/>
     <col min="14" max="15" width="12.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="17.140625" style="6" customWidth="1"/>
@@ -977,12 +1008,14 @@
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
     <col min="19" max="19" width="21.7109375" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="21" max="22" width="17.5703125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>11</v>
@@ -991,7 +1024,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>12</v>
@@ -1006,18 +1039,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1078,7 @@
       <c r="K6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
@@ -1085,7 +1118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1117,8 +1150,8 @@
         <f>G7/J7</f>
         <v>26.162075376035151</v>
       </c>
-      <c r="L7" s="10">
-        <v>5.5</v>
+      <c r="L7" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="M7" s="6">
         <v>6.5000000000000002E-2</v>
@@ -1148,12 +1181,15 @@
       <c r="U7" s="5">
         <v>220000</v>
       </c>
+      <c r="V7" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="W7" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7+1</f>
         <v>2</v>
@@ -1170,10 +1206,7 @@
       <c r="F8" s="5">
         <v>2900</v>
       </c>
-      <c r="G8" s="5">
-        <f>F8+I8-H8</f>
-        <v>2900</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1194,8 +1227,12 @@
       <c r="T8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V8" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ref="B9:B72" si="0">B8+1</f>
         <v>3</v>
@@ -1213,19 +1250,39 @@
         <v>1810</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:G72" si="1">F9+I9-H9</f>
-        <v>1810</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="e">
-        <f t="shared" ref="K9:K72" si="2">G9/J9</f>
-        <v>#DIV/0!</v>
+        <v>1734610</v>
+      </c>
+      <c r="H9" s="5">
+        <v>119940</v>
+      </c>
+      <c r="I9" s="5">
+        <v>30450</v>
+      </c>
+      <c r="J9" s="5">
+        <v>97971</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:K72" si="1">G9/J9</f>
+        <v>17.705341376529791</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2072645</v>
+      </c>
+      <c r="O9" s="5">
+        <v>165</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" ref="P9:P72" si="3">O9/E9-1</f>
-        <v>-1</v>
+        <f t="shared" ref="P9:P72" si="2">O9/E9-1</f>
+        <v>0.13013698630136994</v>
+      </c>
+      <c r="Q9">
+        <v>1998</v>
       </c>
       <c r="R9" t="s">
         <v>143</v>
@@ -1236,89 +1293,123 @@
       <c r="T9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U9" s="5">
+        <v>182000</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E10" s="5">
-        <v>170</v>
+        <v>721</v>
       </c>
       <c r="F10" s="5">
-        <v>177</v>
+        <v>1780</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1776737</v>
+      </c>
+      <c r="H10" s="5">
+        <v>13296</v>
+      </c>
+      <c r="I10" s="5">
+        <v>10605</v>
+      </c>
+      <c r="J10" s="5">
+        <v>22160</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" ref="K10" si="3">G10/J10</f>
+        <v>80.177662454873641</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="M10" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>580962</v>
+      </c>
+      <c r="O10" s="5">
+        <v>235</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="3"/>
-        <v>-1</v>
+        <f t="shared" ref="P10" si="4">O10/E10-1</f>
+        <v>-0.67406380027739243</v>
       </c>
       <c r="R10" t="s">
         <v>143</v>
       </c>
+      <c r="S10" t="s">
+        <v>158</v>
+      </c>
       <c r="T10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="U10" s="5">
+        <v>26000</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E11" s="5">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="F11" s="5">
-        <v>173</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>173</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R11" t="s">
         <v>143</v>
       </c>
-      <c r="S11" t="s">
-        <v>158</v>
-      </c>
       <c r="T11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1335,19 +1426,16 @@
       <c r="F12" s="5">
         <v>1197</v>
       </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>1197</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R12" t="s">
@@ -1359,8 +1447,11 @@
       <c r="T12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V12" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1377,26 +1468,26 @@
       <c r="F13" s="5">
         <v>648</v>
       </c>
-      <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>648</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V13" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1413,19 +1504,16 @@
       <c r="F14" s="5">
         <v>597</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>597</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R14" t="s">
@@ -1437,8 +1525,11 @@
       <c r="T14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V14" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1455,26 +1546,26 @@
       <c r="F15" s="5">
         <v>588</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>588</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V15" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1491,26 +1582,26 @@
       <c r="F16" s="5">
         <v>375</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1527,26 +1618,26 @@
       <c r="F17" s="5">
         <v>363</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>363</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R17" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V17" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1563,26 +1654,26 @@
       <c r="F18" s="5">
         <v>351</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" si="1"/>
-        <v>351</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V18" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1599,19 +1690,16 @@
       <c r="F19" s="5">
         <v>322</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="1"/>
-        <v>322</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R19" t="s">
@@ -1620,8 +1708,11 @@
       <c r="T19" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V19" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1638,26 +1729,26 @@
       <c r="F20" s="5">
         <v>279</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>279</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V20" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1674,26 +1765,26 @@
       <c r="F21" s="5">
         <v>278</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="1"/>
-        <v>278</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V21" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1710,26 +1801,26 @@
       <c r="F22" s="5">
         <v>276</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V22" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1746,26 +1837,26 @@
       <c r="F23" s="5">
         <v>242</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R23" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V23" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1782,26 +1873,26 @@
       <c r="F24" s="5">
         <v>211</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="1"/>
-        <v>211</v>
-      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R24" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V24" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1818,26 +1909,26 @@
       <c r="F25" s="5">
         <v>202</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R25" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V25" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1854,26 +1945,26 @@
       <c r="F26" s="5">
         <v>184</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="R26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V26" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1886,26 +1977,26 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V27" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1918,26 +2009,26 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V28" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1950,26 +2041,26 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V29" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1982,26 +2073,26 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V30" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2014,26 +2105,26 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V31" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2043,26 +2134,26 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R32" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V32" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2072,26 +2163,26 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V33" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2101,26 +2192,26 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R34" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V34" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2130,26 +2221,26 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R35" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V35" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2159,26 +2250,26 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="V36" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2188,26 +2279,23 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2217,26 +2305,23 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2246,26 +2331,23 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2275,26 +2357,23 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2304,26 +2383,23 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2333,23 +2409,20 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P42" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2359,23 +2432,20 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2385,23 +2455,20 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2411,23 +2478,20 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P45" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2437,23 +2501,20 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2463,23 +2524,20 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P47" s="6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2489,19 +2547,16 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P48" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2515,19 +2570,16 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P49" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2541,19 +2593,16 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P50" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2567,19 +2616,16 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P51" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2593,19 +2639,16 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P52" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2619,19 +2662,16 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2645,19 +2685,16 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2671,19 +2708,16 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2697,19 +2731,16 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P56" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2723,19 +2754,16 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P57" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2749,19 +2777,16 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P58" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2775,19 +2800,16 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P59" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2801,19 +2823,16 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P60" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2827,19 +2846,16 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P61" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2853,19 +2869,16 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P62" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2879,19 +2892,16 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P63" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2905,19 +2915,16 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P64" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2931,19 +2938,16 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-      <c r="G65" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P65" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2957,19 +2961,16 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P66" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2983,19 +2984,16 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P67" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3009,19 +3007,16 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P68" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3035,19 +3030,16 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P69" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3061,19 +3053,16 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P70" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3087,19 +3076,16 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P71" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3113,25 +3099,22 @@
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P72" s="6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73">
-        <f t="shared" ref="B73:B106" si="4">B72+1</f>
+        <f t="shared" ref="B73:B106" si="5">B72+1</f>
         <v>67</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -3139,10 +3122,7 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-      <c r="G73" s="5">
-        <f t="shared" ref="G73:G106" si="5">F73+I73-H73</f>
-        <v>0</v>
-      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -3157,7 +3137,7 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3165,10 +3145,7 @@
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -3183,7 +3160,7 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3191,10 +3168,7 @@
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3209,7 +3183,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -3217,10 +3191,7 @@
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
@@ -3235,7 +3206,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -3243,10 +3214,7 @@
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -3261,7 +3229,7 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="C78" s="4" t="s">
@@ -3269,10 +3237,7 @@
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -3287,7 +3252,7 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -3295,10 +3260,7 @@
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -3313,7 +3275,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -3321,10 +3283,7 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -3339,7 +3298,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -3347,10 +3306,7 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -3365,7 +3321,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -3373,10 +3329,7 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -3391,7 +3344,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -3399,10 +3352,7 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -3417,7 +3367,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -3425,10 +3375,7 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -3443,7 +3390,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -3451,10 +3398,7 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -3469,7 +3413,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -3477,10 +3421,7 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -3495,7 +3436,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -3503,10 +3444,7 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -3521,7 +3459,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -3529,10 +3467,7 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -3547,7 +3482,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -3555,10 +3490,7 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -3573,7 +3505,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -3581,10 +3513,7 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -3599,7 +3528,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -3607,10 +3536,7 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -3625,7 +3551,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -3633,10 +3559,7 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -3651,7 +3574,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3659,10 +3582,7 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -3677,7 +3597,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -3685,10 +3605,7 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -3703,7 +3620,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -3711,10 +3628,7 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -3729,7 +3643,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -3737,10 +3651,7 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -3755,7 +3666,7 @@
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -3763,10 +3674,7 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -3781,7 +3689,7 @@
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -3789,10 +3697,7 @@
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-      <c r="G98" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -3807,7 +3712,7 @@
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -3815,10 +3720,7 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -3833,7 +3735,7 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -3841,10 +3743,7 @@
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-      <c r="G100" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -3859,7 +3758,7 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -3867,10 +3766,7 @@
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -3885,7 +3781,7 @@
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -3893,10 +3789,7 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -3911,7 +3804,7 @@
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -3919,10 +3812,7 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -3937,7 +3827,7 @@
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -3945,10 +3835,7 @@
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -3963,7 +3850,7 @@
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -3971,10 +3858,7 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -3989,7 +3873,7 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -3997,10 +3881,7 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -4114,5 +3995,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>